--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3071958.93659308</v>
+        <v>3176138.571044151</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>110.9192708864263</v>
       </c>
       <c r="W2" t="n">
-        <v>9.943518040492057</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>71.67037196991794</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>110.4892783404652</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>48.48304055307481</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>179.9948012226668</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>4.043187116398781</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>52.23543626470242</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>212.214071909543</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>240.3635537979618</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>160.1860160462798</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>157.0541352820792</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>211.6773350344783</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>244.7511938164731</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>74.99129529219157</v>
       </c>
       <c r="E19" t="n">
-        <v>73.98898794535445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101.6969570046982</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>85.08368458989587</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>47.16611136584764</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484972</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710095</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3133845470792</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.6920487814951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>35.56815683447433</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>106.2078024559175</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,13 +3562,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>77.93612009725614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.9742079424032</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>21.90286287505419</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4319,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>3103.275485574221</v>
       </c>
       <c r="W2" t="n">
-        <v>3109.584116376734</v>
+        <v>2750.506830304106</v>
       </c>
       <c r="X2" t="n">
-        <v>2736.118358115654</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1251.839541207228</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>866.0512886089841</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>455.0653838193766</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3033.502222608318</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2702.439335264748</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2349.670679994633</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.8744564335971</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1923.210520698191</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484844</v>
+        <v>1923.210520698191</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610487</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046005</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676399</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X7" t="n">
-        <v>627.8744564335971</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>627.8744564335971</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417424</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191801</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>320.3356310295725</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>309.3035849149731</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,7 +4816,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028708</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.5487792519424</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1483.974150060443</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1194.871283186086</v>
+        <v>1265.371050553404</v>
       </c>
       <c r="V10" t="n">
-        <v>940.1867949801995</v>
+        <v>1010.686562347517</v>
       </c>
       <c r="W10" t="n">
-        <v>940.1867949801995</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="X10" t="n">
-        <v>712.1972440821821</v>
+        <v>721.2693923105561</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.1972440821821</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,22 +5126,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.4944101284095</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.1428749586493</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1949.83911739012</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1695.154629184233</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1405.737459147272</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,52 +5512,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311989</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032921</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909563</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
         <v>407.9027098310023</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5783,16 +5785,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>2607.607030146069</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E22" t="n">
-        <v>2607.607030146069</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6007,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>2824.769373306004</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>2655.833190378097</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2505.716550965761</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6251,7 +6253,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P27" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3112.53743214738</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>2943.601249219473</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.484609807138</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807138</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4576.144911917817</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4287.069685262015</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4032.385197056128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3742.968027019167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3514.97847612115</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y28" t="n">
-        <v>3294.18589697762</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,34 +6481,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>917.5010142286982</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>917.5010142286982</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>767.3843748163624</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>619.4712812339693</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6628,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6637,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1099.149479058938</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,31 +6718,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>733.455065717131</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>733.455065717131</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>733.455065717131</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>585.5419721347379</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>438.6520246368275</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>271.4559253517074</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>129.7440941939055</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7017,13 +7019,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="N36" t="n">
         <v>1344.266747951537</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>3226.019303113301</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>3057.083120185394</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>2906.966480773059</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>2759.053387190665</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>2612.163439692755</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>2444.967340407635</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908938</v>
@@ -7324,10 +7326,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7360,22 +7362,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601573</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7394,58 +7396,58 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.711814750802</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.728115292809974</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>41.43328057277105</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>73.62417772602079</v>
       </c>
       <c r="E19" t="n">
-        <v>72.44497470121472</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>43.72409101823303</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>80.44045370237298</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>170.2393389614406</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>180.5487903941874</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>12.10766347585209</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.89260457059967</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>45.69767948409118</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>34.08691039030636</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.4693302300321</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.85777223953414</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.7126101431582</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312483</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
@@ -26332,16 +26334,16 @@
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287552</v>
@@ -26350,10 +26352,10 @@
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813239</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813261</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26436,13 +26438,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26451,10 +26453,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26494,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808011.2607158704</v>
+        <v>-808011.2607158709</v>
       </c>
       <c r="C6" t="n">
-        <v>520733.4850117225</v>
+        <v>520733.4850117229</v>
       </c>
       <c r="D6" t="n">
-        <v>520733.4850117225</v>
+        <v>520733.4850117222</v>
       </c>
       <c r="E6" t="n">
-        <v>269161.1948107119</v>
+        <v>269161.1948107117</v>
       </c>
       <c r="F6" t="n">
-        <v>594573.6566180673</v>
+        <v>594573.6566180669</v>
       </c>
       <c r="G6" t="n">
+        <v>594573.6566180668</v>
+      </c>
+      <c r="H6" t="n">
         <v>594573.6566180671</v>
       </c>
-      <c r="H6" t="n">
-        <v>594573.6566180672</v>
-      </c>
       <c r="I6" t="n">
-        <v>594573.6566180669</v>
+        <v>594573.6566180671</v>
       </c>
       <c r="J6" t="n">
-        <v>377042.4542207898</v>
+        <v>377042.4542207894</v>
       </c>
       <c r="K6" t="n">
         <v>594573.6566180671</v>
       </c>
       <c r="L6" t="n">
-        <v>594573.6566180672</v>
+        <v>594573.6566180671</v>
       </c>
       <c r="M6" t="n">
-        <v>509518.6286825552</v>
+        <v>509518.628682555</v>
       </c>
       <c r="N6" t="n">
-        <v>594573.6566180671</v>
+        <v>594573.6566180673</v>
       </c>
       <c r="O6" t="n">
-        <v>594573.6566180671</v>
+        <v>594573.6566180673</v>
       </c>
       <c r="P6" t="n">
-        <v>594573.6566180671</v>
+        <v>594573.6566180669</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26817,19 +26819,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.604497107147145e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>216.8329875837086</v>
       </c>
       <c r="W2" t="n">
-        <v>339.297450676921</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356949</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>115.220377048572</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>71.0003707362352</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>185.7258382150431</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>173.4742191243347</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>169.7162981627188</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>54.24421058935869</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.36293322988936</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>129.1577029235336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29512,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30466,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5.759950151119559e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31844,10 +31846,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913764</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32078,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32563,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P21" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32789,10 +32791,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,34 +33025,34 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q27" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,31 +33265,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182819</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,37 +33496,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789102</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>282.8216163968498</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>742.9354859824761</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33974,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>579.8936048175469</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>574.6535388222619</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770462</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35726,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q27" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>8.181160134948627</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955769</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>140.6875824748315</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991428</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>448.5518927342137</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="P45" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3176138.571044151</v>
+        <v>3172125.961030159</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>110.9192708864263</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991794</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>73.11206506387242</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>347.4416819815999</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>48.48304055307481</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>90.59906198540635</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>4.043187116398781</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>212.214071909543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.7944255145766</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U10" t="n">
-        <v>157.0541352820792</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612599</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.795251606876045</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>244.7511938164731</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>74.99129529219157</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.08368458989587</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>45.16086499484972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.3133845470792</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>35.56815683447433</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>106.2078024559175</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179411</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4321,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3103.275485574221</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2750.506830304106</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.105239813979</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.839541207228</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>866.0512886089841</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>455.0653838193766</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,37 +4582,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794324</v>
+        <v>2029.572515263128</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818512</v>
+        <v>2029.572515263128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>698.5757713318894</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>698.5757713318894</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>548.4591319195537</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>548.4591319195537</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>401.5691844216433</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1923.210520698191</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1923.210520698191</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1634.107653823834</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1379.423165617947</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W7" t="n">
-        <v>1090.005995580987</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>880.2242361621292</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471215</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.925018530804</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535337</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.476813167026</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1265.371050553404</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1010.686562347517</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>721.2693923105561</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>721.2693923105561</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.476813167026</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5260,52 +5260,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1949.83911739012</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,61 +5494,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,55 +5734,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2655.833190378097</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.716550965761</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>2505.716550965761</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>2505.716550965761</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
@@ -6229,22 +6229,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6253,7 +6253,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1098.667160263526</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263526</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286982</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>917.5010142286982</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>767.3843748163624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>619.4712812339693</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058938</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058938</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.455065717131</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>733.455065717131</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>733.455065717131</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>585.5419721347379</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>438.6520246368275</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>271.4559253517074</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>129.7440941939055</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831766</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625879</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690901</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473707</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913855</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3226.019303113301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3057.083120185394</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2906.966480773059</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2759.053387190665</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>2612.163439692755</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2444.967340407635</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3674.801433154848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3446.811882256831</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3226.019303113301</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,34 +7393,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7438,16 +7438,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852888</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>265.0731740618515</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>97.87707477673149</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>97.87707477673149</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.9994244361428</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.7894017452188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>41.43328057277105</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>73.62417772602079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>116.6691671648107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>80.44045370237298</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>180.5487903941874</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.10766347585209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>45.69767948409118</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.08691039030636</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038612</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>77.24602870709352</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716012.3781689525</v>
+        <v>716012.3781689527</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813239</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813258</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26441,10 +26441,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="K4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10557.08828678112</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808011.2607158709</v>
+        <v>-808011.2607158704</v>
       </c>
       <c r="C6" t="n">
-        <v>520733.4850117229</v>
+        <v>520733.4850117223</v>
       </c>
       <c r="D6" t="n">
-        <v>520733.4850117222</v>
+        <v>520733.4850117217</v>
       </c>
       <c r="E6" t="n">
-        <v>269161.1948107117</v>
+        <v>268813.8155563548</v>
       </c>
       <c r="F6" t="n">
-        <v>594573.6566180669</v>
+        <v>594226.27736371</v>
       </c>
       <c r="G6" t="n">
-        <v>594573.6566180668</v>
+        <v>594226.2773637101</v>
       </c>
       <c r="H6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="I6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637102</v>
       </c>
       <c r="J6" t="n">
-        <v>377042.4542207894</v>
+        <v>376695.0749664326</v>
       </c>
       <c r="K6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="L6" t="n">
-        <v>594573.6566180671</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="M6" t="n">
-        <v>509518.628682555</v>
+        <v>509171.2494281984</v>
       </c>
       <c r="N6" t="n">
-        <v>594573.6566180673</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="O6" t="n">
-        <v>594573.6566180673</v>
+        <v>594226.2773637103</v>
       </c>
       <c r="P6" t="n">
-        <v>594573.6566180669</v>
+        <v>594226.2773637103</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.604497107147145e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.604497107147145e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>216.8329875837086</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356949</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>213.4109332727186</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17.83120978940764</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>362.4386851003786</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>75.42674627362187</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>185.7258382150431</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>169.7162981627188</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>111.443513141477</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U10" t="n">
-        <v>129.1577029235336</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.759950151119559e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>671.2522281007816</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182819</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>750.6021172789102</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>742.9354859824761</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>574.6535388222619</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>528.6559836563372</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134948627</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>619.2604051955769</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991428</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>432.0572943778175</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3172125.961030159</v>
+        <v>3173886.491332945</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>178.8924074218498</v>
       </c>
       <c r="W4" t="n">
-        <v>73.11206506387242</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>347.4416819815999</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>186.0867603502131</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>90.59906198540635</v>
+        <v>90.59906198540686</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145766</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="9">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960834</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.52471385612599</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>104.8913819999782</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>62.36981422367014</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670949</v>
+        <v>78.89395497654104</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C4" t="n">
         <v>772.5608581015648</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.927635901259</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.938085003241</v>
+        <v>954.2093229318045</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2029.572515263128</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3027.34872854009</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794323</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524208</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263128</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.572515263128</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.5757713318894</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C7" t="n">
-        <v>698.5757713318894</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="D7" t="n">
-        <v>548.4591319195537</v>
+        <v>548.4591319195541</v>
       </c>
       <c r="E7" t="n">
-        <v>548.4591319195537</v>
+        <v>548.4591319195541</v>
       </c>
       <c r="F7" t="n">
-        <v>401.5691844216433</v>
+        <v>401.5691844216437</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4761,16 +4761,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,19 +4834,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
         <v>2731.767278738087</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4950,16 +4950,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,10 +4986,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
         <v>1854.900232967364</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
@@ -5120,7 +5120,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>119.599202296584</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>366.9636532421608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>199.7675539570408</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5664,13 +5664,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6129,19 +6129,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6205,37 +6205,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6837,22 +6837,22 @@
         <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>298.5283065529154</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>156.8164753951134</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7645,7 +7645,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.40333084624567</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>64.74262662649484</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.89602209489539</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>41.54258064659095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194225</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716012.3781689527</v>
+        <v>716012.3781689525</v>
       </c>
     </row>
     <row r="11">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
@@ -26322,37 +26322,37 @@
         <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813258</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678125</v>
@@ -26441,7 +26441,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808011.2607158704</v>
+        <v>-808011.2607158705</v>
       </c>
       <c r="C6" t="n">
-        <v>520733.4850117223</v>
+        <v>520733.4850117222</v>
       </c>
       <c r="D6" t="n">
-        <v>520733.4850117217</v>
+        <v>520733.485011722</v>
       </c>
       <c r="E6" t="n">
-        <v>268813.8155563548</v>
+        <v>269126.4568852763</v>
       </c>
       <c r="F6" t="n">
-        <v>594226.27736371</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="G6" t="n">
-        <v>594226.2773637101</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="H6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926313</v>
       </c>
       <c r="I6" t="n">
-        <v>594226.2773637102</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="J6" t="n">
-        <v>376695.0749664326</v>
+        <v>377007.7162953541</v>
       </c>
       <c r="K6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="L6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="M6" t="n">
-        <v>509171.2494281984</v>
+        <v>509483.8907571195</v>
       </c>
       <c r="N6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
       <c r="O6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926315</v>
       </c>
       <c r="P6" t="n">
-        <v>594226.2773637103</v>
+        <v>594538.9186926316</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>73.24523590197819</v>
       </c>
       <c r="W4" t="n">
-        <v>213.4109332727186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>17.83120978940764</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.83120978940701</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.42674627362187</v>
+        <v>75.42674627362136</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.443513141477</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="9">
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.8785773062519</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -33180,13 +33180,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
